--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'eklabool', 'naur', 'shimenet', 'anda', 'andamhie', 'chika', '$'}</t>
+          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'eklabool', 'naur', 'shimenet', 'anda', 'andamhie', 'chika', '$'}</t>
+          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'eklabool', 'shimenet', 'anda', 'andamhie', 'chika', '$'}</t>
+          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'naur', 'anda'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'eklabool', 'naur', 'shimenet', 'anda', 'andamhie', 'chika', '$'}</t>
+          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika'}</t>
+          <t>{'anda', 'andamhie', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '[', '&amp;&amp;', '+=', ';', '**', '-', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '&amp;&amp;', '+=', ';', '**', '-', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '[', '&amp;&amp;', '+=', ';', '**', '-', '(', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '+=', '&lt;', '/', ')', '=', '(', '!='}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '[', '&amp;&amp;', '+=', ';', '**', '-', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'shimenet', 'anda'}</t>
+          <t>{'eklabool', 'shimenet', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', 'amaccana', '}'}</t>
+          <t>{'}', 'betsung', 'ditech', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'naur', 'anda'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'naur', 'anda'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'amaccana', 'naur', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}', 'anda', 'andamhie', 'forda', 'id', 'chika', 'versa', 'naur', 'eklabool', 'pak', 'serve', '++', '--', 'push', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'&lt;=', '&gt;=', '==', '||', '!', '!=', '/', '%', '+', '//', '=', '&amp;&amp;', '+=', '**', '-', '*', '&gt;', '&lt;'}</t>
+          <t>{'&amp;&amp;', '**', '//', '&gt;', '||', '==', '!', '&gt;=', '%', '+', '-', '&lt;=', '*', '&lt;', '/', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'step', ')', ';', 'to', ',', ']', ':', '}'}</t>
+          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'korik', 'anda_literal', 'chika_literal', 'eme', 'andamhie_literal'}</t>
+          <t>{'anda_literal', 'eme', 'chika_literal', 'korik', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '[', '&amp;&amp;', '+=', ';', '**', '-', '(', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '+=', '&lt;', '/', ')', '=', '(', '!='}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'korik', 'anda_literal', 'chika_literal', 'eme', 'andamhie_literal'}</t>
+          <t>{'anda_literal', 'eme', 'chika_literal', 'korik', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'eklabool', 'id', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;control-flow-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;return-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'amaccana', 'gogogo'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;return-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;unary-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'++', '--', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;unary-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'--', '++', 'id'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; Î»</t>
+          <t>&lt;loop-body&gt; -&gt; id &lt;assign-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;assign-stmts&gt; -&gt; &lt;func-array&gt; &lt;arithmetic-operators&gt; = &lt;assignment-values&gt; ;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;input-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '[', '&amp;&amp;', '+=', ';', '**', '-', '(', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; +</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;output-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'+'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; -</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;loop-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'-'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; %</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;loop-conditional-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'%'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; /</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;loop-switch-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'/'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; //</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;return-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'//'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; *</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;unary-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'*'}</t>
+          <t>{'++', '--', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; **</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;control-flow-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'**'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt; -&gt; Î»</t>
+          <t>&lt;loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>&lt;assignment-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;multi-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>&lt;input-stmts&gt; -&gt; &lt;input-type&gt; id = givenchy ( &lt;givenchy-values&gt; ) ;</t>
+          <t>&lt;multi-loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'eklabool', 'id', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'}', 'betsung', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>&lt;input-type&gt; -&gt; &lt;data-type&gt;</t>
+          <t>&lt;assign-stmts&gt; -&gt; &lt;func-array&gt; &lt;arithmetic-operators&gt; = &lt;assignment-values&gt; ;</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '+=', '&lt;', '/', ')', '=', '(', '!='}</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>&lt;input-type&gt; -&gt; Î»</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; +</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'+'}</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>&lt;givenchy-values&gt; -&gt; &lt;expression-operands&gt;</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; -</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'-'}</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>&lt;output-stmts&gt; -&gt; serve ( &lt;output-values&gt; ) ;</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; %</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'%'}</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>&lt;output-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; /</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'/'}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; //</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'//'}</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;condition&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; *</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'*'}</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;conditional-body&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt; &lt;multi-statements&gt;</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; **</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'**'}</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;conditional-body&gt; -&gt; Î»</t>
+          <t>&lt;arithmetic-operators&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;ganern-pak-statement&gt; -&gt; ganern pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt;</t>
+          <t>&lt;assignment-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'ganern'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;ganern-pak-statement&gt; -&gt; Î»</t>
+          <t>&lt;input-stmts&gt; -&gt; &lt;input-type&gt; id = givenchy ( &lt;givenchy-values&gt; ) ;</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'ganern', 'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'push', 'eklabool', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', '}'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;ganern-case&gt; -&gt; ganern { &lt;conditional-body&gt; }</t>
+          <t>&lt;input-type&gt; -&gt; &lt;data-type&gt;</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'ganern'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;ganern-case&gt; -&gt; Î»</t>
+          <t>&lt;input-type&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;loop-stmts&gt; -&gt; &lt;forda-statement&gt;</t>
+          <t>&lt;givenchy-values&gt; -&gt; &lt;expression-operands&gt;</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'forda'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>&lt;loop-stmts&gt; -&gt; &lt;keri-statement&gt;</t>
+          <t>&lt;output-stmts&gt; -&gt; serve ( &lt;output-values&gt; ) ;</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'keri'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>&lt;forda-statement&gt; -&gt; forda ( &lt;loop-type-init&gt; id from &lt;start-value&gt; to &lt;end-value&gt; &lt;step-case&gt; ) { &lt;for-loop-body&gt; }</t>
+          <t>&lt;output-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'forda'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>&lt;loop-type-init&gt; -&gt; &lt;data-type&gt;</t>
+          <t>&lt;conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>&lt;loop-type-init&gt; -&gt; Î»</t>
+          <t>&lt;condition&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>&lt;start-value&gt; -&gt; &lt;loop-conditions&gt;</t>
+          <t>&lt;conditional-body&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt; &lt;multi-statements&gt;</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;end-value&gt; -&gt; &lt;loop-conditions&gt;</t>
+          <t>&lt;conditional-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>&lt;step-case&gt; -&gt; step &lt;update&gt;</t>
+          <t>&lt;loop-conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;loop-conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'step'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>&lt;step-case&gt; -&gt; Î»</t>
+          <t>&lt;loop-conditional-body&gt; -&gt; &lt;local-dec&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&lt;update&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;loop-conditional-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>&lt;update&gt; -&gt; Î»</t>
+          <t>&lt;ganern-pak-statement&gt; -&gt; ganern pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt;</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'ganern'}</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>&lt;loop-conditions&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;ganern-pak-statement&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', 'ganern', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>&lt;for-loop-body&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt; &lt;multi-statements&gt;</t>
+          <t>&lt;ganern-case&gt; -&gt; ganern { &lt;conditional-body&gt; }</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'ganern'}</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>&lt;for-loop-body&gt; -&gt; Î»</t>
+          <t>&lt;ganern-case&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>&lt;keri-statement&gt; -&gt; keri &lt;keri-case&gt;</t>
+          <t>&lt;loop-stmts&gt; -&gt; &lt;forda-statement&gt;</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'keri'}</t>
+          <t>{'forda'}</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>&lt;keri-case&gt; -&gt; ( &lt;condition&gt; ) { &lt;while-loop-body&gt; }</t>
+          <t>&lt;loop-stmts&gt; -&gt; &lt;keri-statement&gt;</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'keri'}</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>&lt;keri-case&gt; -&gt; lang { &lt;while-loop-body&gt; } keri ( &lt;condition&gt; )</t>
+          <t>&lt;forda-statement&gt; -&gt; forda ( &lt;loop-type-init&gt; id from &lt;start-value&gt; to &lt;end-value&gt; &lt;step-case&gt; ) { &lt;for-loop-body&gt; }</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{'lang'}</t>
+          <t>{'forda'}</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>&lt;while-loop-body&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt; &lt;multi-statements&gt;</t>
+          <t>&lt;loop-type-init&gt; -&gt; &lt;data-type&gt;</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>&lt;while-loop-body&gt; -&gt; Î»</t>
+          <t>&lt;loop-type-init&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>&lt;switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt; &lt;ditech-case&gt; }</t>
+          <t>&lt;start-value&gt; -&gt; &lt;loop-conditions&gt;</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>&lt;multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt;</t>
+          <t>&lt;end-value&gt; -&gt; &lt;loop-conditions&gt;</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'betsung'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;multi-cases&gt; -&gt; Î»</t>
+          <t>&lt;step-case&gt; -&gt; step &lt;update&gt;</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'step'}</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&lt;switch-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;step-case&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>&lt;switch-statements&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt; &lt;multi-statements&gt;</t>
+          <t>&lt;update&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>&lt;amaccana-case&gt; -&gt; amaccana ;</t>
+          <t>&lt;update&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'amaccana'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>&lt;amaccana-case&gt; -&gt; Î»</t>
+          <t>&lt;loop-conditions&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'ditech', '}', 'betsung'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>&lt;ditech-case&gt; -&gt; ditech : &lt;switch-statements&gt;</t>
+          <t>&lt;for-loop-body&gt; -&gt; &lt;local-dec&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'ditech'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>&lt;ditech-case&gt; -&gt; Î»</t>
+          <t>&lt;for-loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt; -&gt; gogogo ;</t>
+          <t>&lt;keri-statement&gt; -&gt; keri &lt;keri-case&gt;</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{'gogogo'}</t>
+          <t>{'keri'}</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt; -&gt; amaccana ;</t>
+          <t>&lt;keri-case&gt; -&gt; ( &lt;condition&gt; ) { &lt;while-loop-body&gt; }</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'amaccana'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>&lt;return-stmts&gt; -&gt; push &lt;push-values&gt; ;</t>
+          <t>&lt;keri-case&gt; -&gt; lang { &lt;while-loop-body&gt; } keri ( &lt;condition&gt; )</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'push'}</t>
+          <t>{'lang'}</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>&lt;return-stmts&gt; -&gt; Î»</t>
+          <t>&lt;while-loop-body&gt; -&gt; &lt;local-dec&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>&lt;unary-stmts&gt; -&gt; &lt;unary-operator&gt; id ;</t>
+          <t>&lt;while-loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>&lt;unary-stmts&gt; -&gt; id &lt;unary-operator&gt; ;</t>
+          <t>&lt;switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt; &lt;ditech-case&gt; }</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>&lt;push-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt;</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4157,15 +4157,395 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>&lt;multi-cases&gt; -&gt; Î»</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>{'ditech', '}'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>&lt;switch-values&gt; -&gt; &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>&lt;switch-statements&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt; &lt;multi-statements&gt;</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>&lt;loop-switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt; &lt;ditech-case&gt; }</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>{'versa'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>&lt;loop-multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt;</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>{'betsung'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>&lt;loop-multi-cases&gt; -&gt; Î»</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>{'ditech', '}'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>&lt;loop-switch-statements&gt; -&gt; &lt;local-dec&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>&lt;amaccana-case&gt; -&gt; amaccana ;</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>{'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>&lt;amaccana-case&gt; -&gt; Î»</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>{'}', 'betsung', 'ditech'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>&lt;ditech-case&gt; -&gt; ditech : &lt;switch-statements&gt;</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>{'ditech'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>&lt;ditech-case&gt; -&gt; Î»</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>{'}'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>&lt;control-flow-stmts&gt; -&gt; gogogo ;</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>{'gogogo'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>&lt;control-flow-stmts&gt; -&gt; amaccana ;</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>{'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>&lt;control-flow-stmts&gt; -&gt; Î»</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>&lt;return-stmts&gt; -&gt; push &lt;push-values&gt; ;</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>{'push'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>&lt;return-stmts&gt; -&gt; Î»</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>&lt;unary-stmts&gt; -&gt; &lt;unary-operator&gt; id ;</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>{'++', '--'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>&lt;unary-stmts&gt; -&gt; id &lt;unary-operator&gt; ;</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>{'id'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>&lt;push-values&gt; -&gt; &lt;expression&gt;</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>&lt;push-values&gt; -&gt; Î»</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>-&gt;</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>{';'}</t>
         </is>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
+          <t>{'$', 'chika', 'shimenet', 'naur', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
+          <t>{'$', 'chika', 'shimenet', 'eklabool', 'naur', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'eklabool'}</t>
+          <t>{'$', 'chika', 'shimenet', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'naur', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'chika', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
+          <t>{'$', 'chika', 'shimenet', 'naur', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'anda', 'andamhie', 'chika', 'eklabool'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'chika', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '[', '//', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'chika', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '&gt;=', '//', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'eme', 'korik'}</t>
+          <t>{'korik', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '+=', '&lt;', '/', ')', '=', '(', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '(', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '[', '//', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '[', '//', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'eklabool', 'shimenet', 'anda', 'andamhie', 'chika'}</t>
+          <t>{'shimenet', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'naur', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'naur', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'chika', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'}', 'anda', 'andamhie', 'forda', 'id', 'chika', 'versa', 'naur', 'eklabool', 'pak', 'serve', '++', '--', 'push', 'keri'}</t>
+          <t>{'pak', 'id', '}', 'serve', '++', 'chika', '--', 'versa', 'keri', 'eklabool', 'forda', 'push', 'anda', 'naur', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'&amp;&amp;', '**', '//', '&gt;', '||', '==', '!', '&gt;=', '%', '+', '-', '&lt;=', '*', '&lt;', '/', '=', '+=', '!='}</t>
+          <t>{'&gt;', '&lt;=', '||', '==', '!', '-', '!=', '&lt;', '**', '=', '&amp;&amp;', '+', '+=', '&gt;=', '//', '%', '/', '*'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
+          <t>{'}', 'step', ']', ':', ')', ';', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'korik', '++', '--', 'eme', 'anda_literal', '(', 'chika_literal', 'id', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'eme', 'chika_literal', 'korik', 'andamhie_literal'}</t>
+          <t>{'chika_literal', 'anda_literal', 'korik', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '+=', '&lt;', '/', ')', '=', '(', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '(', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '[', '//', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'eme', 'chika_literal', 'korik', 'andamhie_literal'}</t>
+          <t>{'chika_literal', 'anda_literal', 'korik', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'id'}</t>
+          <t>{'id', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'++', '--', 'id'}</t>
+          <t>{'id', '++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'id'}</t>
+          <t>{'id', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'++', '--', 'id'}</t>
+          <t>{'id', '++', '--'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'}', ']', '[', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '+=', '&lt;', '/', ')', '=', '(', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '(', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '[', '//', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'id'}</t>
+          <t>{'id', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'chika', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', 'ganern', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'ganern', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'chika', 'anda'}</t>
+          <t>{'anda', 'chika', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'chika', 'naur', 'eklabool', 'anda'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'naur', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', '$', 'chika', 'shimenet', 'anda'}</t>
+          <t>{'shimenet', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'chika', 'naur', 'eklabool', 'anda'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'andamhie', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'chika', 'andamhie', 'anda', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'[', ',', '=', ')', ';'}</t>
+          <t>{';', '[', ')', ',', '='}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'anda', 'andamhie', 'chika', 'eklabool'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{',', '=', ')', ';'}</t>
+          <t>{';', ')', ',', '='}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'-', '//=', '*=', ':', '//', 'to', '}', '/', ']', '**=', ')', '+', '&gt;=', '-=', '||', '&lt;', '+=', '==', '&amp;&amp;', 'step', ',', '/=', '&lt;=', '*', ';', '%', '!=', '&gt;', '%=', '=', '**'}</t>
+          <t>{'/=', '==', ')', '&lt;=', ':', 'to', '**=', '**', '//=', ']', '}', '%=', ';', '*', '+', '&gt;=', '/', '%', '*=', '=', '&gt;', '//', '&amp;&amp;', '!=', ',', '||', 'step', '-', '-=', '&lt;', '+='}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'korik', 'eme'}</t>
+          <t>{'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'-', ':', '//', 'to', '}', '(', '/', ']', ')', '+', '&gt;=', '||', '&lt;', '==', '&amp;&amp;', 'step', ',', '&lt;=', '*', ';', '%', '[', '&gt;', '!=', '**'}</t>
+          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '[', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'shimenet', 'chika', 'anda'}</t>
+          <t>{'shimenet', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'keri', 'serve', 'naur', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'id', 'serve', 'pak', '--', 'chika', 'push', 'eklabool', '++', '}', 'naur', 'adelete', 'andamhie', 'anda', 'keri', 'versa', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'==', '-', '&amp;&amp;', '&lt;=', '%', '*', '//', '||', '!=', '&gt;', '/', '+', '&gt;=', '&lt;', '**'}</t>
+          <t>{'*', '+', '&gt;=', '/', '==', '%', '&lt;=', '//', '**', '&gt;', '!=', '&amp;&amp;', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'step', ',', ';', ':', 'to', '}', ']', ')'}</t>
+          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'id', 'anda_literal', 'chika_literal', 'korik', 'eme', 'len', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', 'chika_literal', '--', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'korik', 'eme', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;len-choice&gt; -&gt; id</t>
+          <t>&lt;len-choice&gt; -&gt; id &lt;array-indexing&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'-', ':', '//', 'to', '}', '(', '/', ']', ')', '+', '&gt;=', '||', '&lt;', '==', '&amp;&amp;', 'step', ',', '&lt;=', '*', ';', '%', '[', '&gt;', '!=', '**'}</t>
+          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'korik', 'eme'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'id', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'--', 'id', '++'}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'id', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'--', 'id', '++'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'serve', 'id', 'betsung', 'pak', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'gogogo', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '[', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'id', 'andamhie', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'ganern', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', 'ganern', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'shimenet', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', '$'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'chika', 'andamhie', 'anda', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', '[', ')', ',', '='}</t>
+          <t>{'=', ')', '[', ';', ','}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', ')', ',', '='}</t>
+          <t>{'=', ')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'/=', '==', ')', '&lt;=', ':', 'to', '**=', '**', '//=', ']', '}', '%=', ';', '*', '+', '&gt;=', '/', '%', '*=', '=', '&gt;', '//', '&amp;&amp;', '!=', ',', '||', 'step', '-', '-=', '&lt;', '+='}</t>
+          <t>{'step', '*', '/=', '%=', '-=', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', '*=', ':', '=', '+', ')', ',', 'to', '%', '//=', '==', '**=', '//', '&gt;', '+=', '||', '/', ']', '}', '**'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'eme', 'korik'}</t>
+          <t>{'korik', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
+          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'$', 'shimenet'}</t>
+          <t>{'shimenet', '$'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'id', 'serve', 'pak', '--', 'chika', 'push', 'eklabool', '++', '}', 'naur', 'adelete', 'andamhie', 'anda', 'keri', 'versa', 'forda', 'adele'}</t>
+          <t>{'++', 'forda', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'versa', 'serve', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'*', '+', '&gt;=', '/', '==', '%', '&lt;=', '//', '**', '&gt;', '!=', '&amp;&amp;', '-', '&lt;', '||'}</t>
+          <t>{'*', '==', '//', '&lt;=', '&amp;&amp;', '-', '&gt;', '&lt;', '&gt;=', '!=', '||', '/', '+', '%', '**'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
+          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', 'chika_literal', '--', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', 'eme', '(', 'id', 'andamhie_literal', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
+          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
+          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
+          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'--', 'id', '++'}</t>
+          <t>{'++', '--', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'--', 'id', '++'}</t>
+          <t>{'++', '--', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'forda', 'serve', 'id', 'betsung', 'pak', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'gogogo', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;append-stmts&gt; -&gt; adele ( id , &lt;assignment-values&gt; ) ;</t>
+          <t>&lt;append-stmts&gt; -&gt; adele ( id &lt;array-indexing&gt; , &lt;assignment-values&gt; ) ;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'serve', 'ganern', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'ganern', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4657,15 +4657,35 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>&lt;push-values&gt; -&gt; { &lt;array-elements&gt; }</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>{'{'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>&lt;push-values&gt; -&gt; Î»</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>-&gt;</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>{';'}</t>
         </is>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'=', ')', '[', ';', ','}</t>
+          <t>{';', ')', '=', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'=', ')', ',', ';'}</t>
+          <t>{';', ')', '=', ','}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', 'step', '+', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'step', '*', '/=', '%=', '-=', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', '*=', ':', '=', '+', ')', ',', 'to', '%', '//=', '==', '**=', '//', '&gt;', '+=', '||', '/', ']', '}', '**'}</t>
+          <t>{'%', '!=', ']', '}', '**=', '&lt;=', '//=', '%=', ',', '&lt;', '-=', '+=', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '/=', '||', '&gt;=', ')', '=', '/', '==', '*', 'step', '*=', '-'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'korik', 'eme'}</t>
+          <t>{'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
+          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;array-init&gt; -&gt; = id</t>
+          <t>&lt;array-init&gt; -&gt; = id &lt;func-array-value&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'shimenet', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'anda', 'naur', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'versa', 'serve', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'keri', 'push', '++', 'anda', 'naur', 'adele', 'andamhie', '--', 'serve', 'forda', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'*', '==', '//', '&lt;=', '&amp;&amp;', '-', '&gt;', '&lt;', '&gt;=', '!=', '||', '/', '+', '%', '**'}</t>
+          <t>{'%', '!=', '**', '&gt;', '&lt;=', '&amp;&amp;', '==', '&lt;', '/', '&gt;=', '||', '-', '*', '+', '//'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
+          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', 'eme', '(', 'id', 'andamhie_literal', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
+          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
+          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'++', '--', 'id'}</t>
+          <t>{'--', '++', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
+          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'++', '--', 'id'}</t>
+          <t>{'--', '++', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'amaccana', 'serve', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'forda', 'ganern', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'ganern', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'anda', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'shimenet', 'andamhie', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
+          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'andamhie', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'[', '('}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', ')', '=', ',', '['}</t>
+          <t>{';', '[', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;func-case&gt; -&gt; ( &lt;parameters&gt; )</t>
+          <t>&lt;func-case&gt; -&gt; &lt;array-dec&gt; ( &lt;parameters&gt; )</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{';', '[', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', ')', '=', ','}</t>
+          <t>{';', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', 'step', '+', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '%=', '=', '//', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '**=', '&lt;=', '//=', '%=', ',', '&lt;', '-=', '+=', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '/=', '||', '&gt;=', ')', '=', '/', '==', '*', 'step', '*=', '-'}</t>
+          <t>{';', '==', '/', '&gt;=', '+=', ')', '*', 'to', '+', '/=', '-=', '&gt;', '%', '**=', 'step', '//=', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '*=', '%=', '//', '=', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
+          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'shimenet', 'chika'}</t>
+          <t>{'andamhie', 'chika', 'anda', 'eklabool', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'naur', 'andamhie', 'chika'}</t>
+          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
+          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'keri', 'push', '++', 'anda', 'naur', 'adele', 'andamhie', '--', 'serve', 'forda', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**', '&gt;', '&lt;=', '&amp;&amp;', '==', '&lt;', '/', '&gt;=', '||', '-', '*', '+', '//'}</t>
+          <t>{'-', '==', '/', '&gt;=', '**', '&lt;=', '*', '!=', '+', '%', '&gt;', '&lt;', '//', '&amp;&amp;', '||'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
+          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '(', 'eme'}</t>
+          <t>{'id', 'eme', '(', '--', 'anda_literal', 'len', 'korik', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
+          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
+          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
+          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
+          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'--', '++', 'id'}</t>
+          <t>{'id', '++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
+          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'--', '++', 'id'}</t>
+          <t>{'id', '++', '--'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'amaccana', 'serve', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'forda', '--', 'pak', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'id', 'chika'}</t>
+          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'ganern', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'ganern', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'shimenet', 'andamhie', 'anda', '$'}</t>
+          <t>{'chika', '$', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'andamhie', 'anda'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', '[', '(', '=', ')', ','}</t>
+          <t>{')', '(', ',', '[', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{';', '[', '(', '=', ')', ','}</t>
+          <t>{')', '(', ',', '[', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', '(', '=', ')', ','}</t>
+          <t>{')', ',', '(', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '%=', '=', '//', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{';', '==', '/', '&gt;=', '+=', ')', '*', 'to', '+', '/=', '-=', '&gt;', '%', '**=', 'step', '//=', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '*=', '%=', '//', '=', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '//=', '*=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '=', '&amp;&amp;', '+', '+=', 'step', '//', '%', ',', ':', '-=', '**=', '!=', '/=', ')', '&lt;', '%=', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;func-def&gt; -&gt; &lt;return-type&gt; id ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;</t>
+          <t>&lt;func-def&gt; -&gt; &lt;return-type&gt; id &lt;array-dec&gt; ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'andamhie', 'chika', 'anda', 'eklabool', 'shimenet'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'anda'}</t>
+          <t>{'push', 'keri', 'naur', '++', '--', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'-', '==', '/', '&gt;=', '**', '&lt;=', '*', '!=', '+', '%', '&gt;', '&lt;', '//', '&amp;&amp;', '||'}</t>
+          <t>{'&lt;=', '//', '%', '&gt;=', '||', '-', '!=', '*', '**', '&lt;', '==', '&gt;', '/', '&amp;&amp;', '+'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
+          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '(', '--', 'anda_literal', 'len', 'korik', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '(', '++', '--', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
+          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
+          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'id', '++', '--'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'id', '++', '--'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'forda', '--', 'pak', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'ganern', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'ganern', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'andamhie', 'chika', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{')', '(', ',', '[', '=', ';'}</t>
+          <t>{')', '=', ',', '[', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{')', '(', ',', '[', '=', ';'}</t>
+          <t>{')', '=', ',', '[', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{')', ',', '(', '=', ';'}</t>
+          <t>{')', '=', ',', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;array-indexing&gt; -&gt; [ &lt;array-values&gt; ] &lt;2d-index&gt;</t>
+          <t>&lt;array-indexing&gt; -&gt; [ &lt;array-values&gt; ] &lt;multi-index&gt;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;2d-index&gt; -&gt; [ &lt;array-values&gt; ] &lt;3d-index&gt;</t>
+          <t>&lt;multi-index&gt; -&gt; [ &lt;array-values&gt; ] &lt;multi-index&gt;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;2d-index&gt; -&gt; Î»</t>
+          <t>&lt;multi-index&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', ';', '**=', '-', '**', '/', '*', '||', 'step', '*=', '&gt;=', '==', '+', '-=', '%', 'to', '//=', ',', '&lt;', '}', ')', '//', '=', '/=', '&amp;&amp;', '+=', ':', '%='}</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;3d-index&gt;  -&gt; [ &lt;array-values&gt; ]</t>
+          <t>&lt;array-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'['}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;3d-index&gt;  -&gt; Î»</t>
+          <t>&lt;literals&gt; -&gt; anda_literal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'&lt;=', '//=', '*=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '=', '&amp;&amp;', '+', '+=', 'step', '//', '%', ',', ':', '-=', '**=', '!=', '/=', ')', '&lt;', '%=', '&gt;', '}', ';'}</t>
+          <t>{'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;array-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;literals&gt; -&gt; andamhie_literal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;literals&gt; -&gt; anda_literal</t>
+          <t>&lt;literals&gt; -&gt; chika_literal &lt;array-indexing&gt;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'anda_literal'}</t>
+          <t>{'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;literals&gt; -&gt; andamhie_literal</t>
+          <t>&lt;literals&gt; -&gt; &lt;eklabool&gt;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'andamhie_literal'}</t>
+          <t>{'korik', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;literals&gt; -&gt; chika_literal &lt;array-indexing&gt;</t>
+          <t>&lt;eklabool&gt; -&gt; korik</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'chika_literal'}</t>
+          <t>{'korik'}</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;literals&gt; -&gt; &lt;eklabool&gt;</t>
+          <t>&lt;eklabool&gt; -&gt; eme</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'eme', 'korik'}</t>
+          <t>{'eme'}</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;eklabool&gt; -&gt; korik</t>
+          <t>&lt;func-array&gt;  -&gt; &lt;func-array-value&gt;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'korik'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;eklabool&gt; -&gt; eme</t>
+          <t>&lt;func-array&gt;   -&gt; Î»</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'eme'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;func-array&gt;  -&gt; &lt;func-array-value&gt;</t>
+          <t>&lt;func-array-value&gt; -&gt; ( &lt;arguments&gt; )</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;func-array&gt;   -&gt; Î»</t>
+          <t>&lt;func-array-value&gt; -&gt; &lt;array-indexing&gt;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;func-array-value&gt; -&gt; ( &lt;arguments&gt; )</t>
+          <t>&lt;var-init&gt;  -&gt; id &lt;var-init-tail&gt; &lt;multi-init-values&gt;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;func-array-value&gt; -&gt; &lt;array-indexing&gt;</t>
+          <t>&lt;var-init-tail&gt;  -&gt; = &lt;init-values&gt;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;var-init&gt;  -&gt; id &lt;var-init-tail&gt; &lt;multi-init-values&gt;</t>
+          <t>&lt;var-init-tail&gt;  -&gt; Î»</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;var-init-tail&gt;  -&gt; = &lt;init-values&gt;</t>
+          <t>&lt;multi-init-values&gt; -&gt; , id &lt;multi-init-values-tail&gt; &lt;multi-init-values&gt;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;var-init-tail&gt;  -&gt; Î»</t>
+          <t>&lt;multi-init-values&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;multi-init-values&gt; -&gt; , id &lt;multi-init-values-tail&gt; &lt;multi-init-values&gt;</t>
+          <t>&lt;multi-init-values-tail&gt; -&gt; = &lt;init-values&gt;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;multi-init-values&gt; -&gt; Î»</t>
+          <t>&lt;multi-init-values-tail&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;multi-init-values-tail&gt; -&gt; = &lt;init-values&gt;</t>
+          <t>&lt;init-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;multi-init-values-tail&gt; -&gt; Î»</t>
+          <t>&lt;array-init&gt; -&gt; = { &lt;array-elements&gt; }</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;init-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;array-init&gt; -&gt; = id &lt;func-array-value&gt;</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;array-init&gt; -&gt; = { &lt;array-elements&gt; }</t>
+          <t>&lt;array-init&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;array-init&gt; -&gt; = id &lt;func-array-value&gt;</t>
+          <t>&lt;array-elements&gt; -&gt; &lt;array-values&gt; &lt;extra-array-value&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;array-init&gt; -&gt; Î»</t>
+          <t>&lt;array-elements&gt; -&gt; { &lt;array-elements&gt; } &lt;extra-array-value&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{'{'}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;array-elements&gt; -&gt; &lt;array-values&gt; &lt;extra-array-value&gt;</t>
+          <t>&lt;extra-array-value&gt; -&gt; , &lt;array-values&gt; &lt;extra-array-value&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;array-elements&gt; -&gt; { &lt;array-elements&gt; } &lt;extra-array-value&gt;</t>
+          <t>&lt;extra-array-value&gt; -&gt; , { &lt;array-elements&gt; } &lt;extra-array-value&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'{'}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;extra-array-value&gt; -&gt; , &lt;array-values&gt; &lt;extra-array-value&gt;</t>
+          <t>&lt;extra-array-value&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;extra-array-value&gt; -&gt; , { &lt;array-elements&gt; } &lt;extra-array-value&gt;</t>
+          <t>&lt;func-def&gt; -&gt; &lt;return-type&gt; id &lt;array-dec&gt; ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'shimenet', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;extra-array-value&gt; -&gt; Î»</t>
+          <t>&lt;func-def&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'shimenet', '$'}</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;func-def&gt; -&gt; &lt;return-type&gt; id &lt;array-dec&gt; ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;</t>
+          <t>&lt;func-body&gt; -&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'shimenet'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;func-def&gt; -&gt; Î»</t>
+          <t>&lt;func-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'$', 'shimenet'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;func-body&gt; -&gt; &lt;statements&gt;</t>
+          <t>&lt;local-dec&gt; -&gt; &lt;local-dec-init&gt; &lt;array-assign&gt; &lt;local-dec&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;func-body&gt; -&gt; Î»</t>
+          <t>&lt;local-dec&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;local-dec&gt; -&gt; &lt;local-dec-init&gt; &lt;array-assign&gt; &lt;local-dec&gt;</t>
+          <t>&lt;local-dec-init&gt; -&gt; &lt;naur-case&gt; &lt;data-type&gt; &lt;var-init&gt; ;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;local-dec&gt; -&gt; Î»</t>
+          <t>&lt;local-dec-init&gt; -&gt; &lt;data-type&gt; id &lt;array-dec&gt; &lt;array-init&gt; ;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;local-dec-init&gt; -&gt; &lt;naur-case&gt; &lt;data-type&gt; &lt;var-init&gt; ;</t>
+          <t>&lt;arguments&gt; -&gt; &lt;arguments-value&gt; &lt;multi-arguments-value&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;local-dec-init&gt; -&gt; &lt;data-type&gt; id &lt;array-dec&gt; &lt;array-init&gt; ;</t>
+          <t>&lt;arguments&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;arguments&gt; -&gt; &lt;arguments-value&gt; &lt;multi-arguments-value&gt;</t>
+          <t>&lt;multi-arguments-value&gt; -&gt; , &lt;arguments-value&gt; &lt;multi-arguments-value&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;arguments&gt; -&gt; Î»</t>
+          <t>&lt;multi-arguments-value&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;multi-arguments-value&gt; -&gt; , &lt;arguments-value&gt; &lt;multi-arguments-value&gt;</t>
+          <t>&lt;arguments-value&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;multi-arguments-value&gt; -&gt; Î»</t>
+          <t>&lt;array-assign&gt; -&gt; id &lt;array-indexing&gt; = &lt;array-values&gt; ;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;arguments-value&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;array-assign&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'andamhie', 'adelete', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;array-assign&gt; -&gt; id &lt;array-indexing&gt; = &lt;array-values&gt; ;</t>
+          <t>&lt;kween-body&gt; -&gt; &lt;func-body&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'eklabool', 'anda', 'serve', 'pak', 'chika', '}', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;array-assign&gt; -&gt; Î»</t>
+          <t>&lt;expression&gt; -&gt; &lt;simple-expression&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;kween-body&gt; -&gt; &lt;func-body&gt;</t>
+          <t>&lt;expression&gt; -&gt; &lt;multi-expression&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'push', 'keri', 'naur', '++', '--', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;expression&gt; -&gt; &lt;simple-expression&gt;</t>
+          <t>&lt;simple-expression&gt; -&gt; &lt;expression-operands&gt; &lt;expression-tail&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;expression&gt; -&gt; &lt;multi-expression&gt;</t>
+          <t>&lt;multi-expression&gt; -&gt; ( &lt;expression&gt; ) &lt;expression-tail&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;simple-expression&gt; -&gt; &lt;expression-operands&gt; &lt;expression-tail&gt;</t>
+          <t>&lt;expression-tail&gt; -&gt; &lt;general-operators&gt; &lt;expression-operands&gt; &lt;expression-tail&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'&lt;=', '!=', '%', '&gt;', '&lt;', '/', '*', '-', '**', '||', '//', '&gt;=', '==', '&amp;&amp;', '+'}</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;multi-expression&gt; -&gt; ( &lt;expression&gt; ) &lt;expression-tail&gt;</t>
+          <t>&lt;expression-tail&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;expression-tail&gt; -&gt; &lt;general-operators&gt; &lt;expression-operands&gt; &lt;expression-tail&gt;</t>
+          <t>&lt;expression-operands&gt; -&gt; &lt;negative-not-value&gt; &lt;expression-value&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'&lt;=', '//', '%', '&gt;=', '||', '-', '!=', '*', '**', '&lt;', '==', '&gt;', '/', '&amp;&amp;', '+'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;expression-tail&gt; -&gt; Î»</t>
+          <t>&lt;negative-not-value&gt; -&gt; -</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
+          <t>{'-'}</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;expression-operands&gt; -&gt; &lt;negative-not-value&gt; &lt;expression-value&gt;</t>
+          <t>&lt;negative-not-value&gt; -&gt; !</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'!'}</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;negative-not-value&gt; -&gt; -</t>
+          <t>&lt;negative-not-value&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'-'}</t>
+          <t>{'anda_literal', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;negative-not-value&gt; -&gt; !</t>
+          <t>&lt;expression-value&gt; -&gt; &lt;unary-operator&gt; id</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'!'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;negative-not-value&gt; -&gt; Î»</t>
+          <t>&lt;expression-value&gt; -&gt; id &lt;identifier-tail&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '(', '++', '--', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;expression-value&gt; -&gt; &lt;unary-operator&gt; id</t>
+          <t>&lt;expression-value&gt; -&gt; &lt;general-operands&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;expression-value&gt; -&gt; id &lt;identifier-tail&gt;</t>
+          <t>&lt;expression-value&gt; -&gt; ( &lt;expression&gt; )</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;expression-value&gt; -&gt; &lt;general-operands&gt;</t>
+          <t>&lt;expression-value&gt; -&gt; len ( &lt;len-choice&gt; )</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'len'}</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;expression-value&gt; -&gt; ( &lt;expression&gt; )</t>
+          <t>&lt;len-choice&gt; -&gt; chika_literal</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;expression-value&gt; -&gt; len ( &lt;len-choice&gt; )</t>
+          <t>&lt;len-choice&gt; -&gt; id &lt;array-indexing&gt;</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'len'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;len-choice&gt; -&gt; chika_literal</t>
+          <t>&lt;identifier-tail&gt; -&gt; &lt;func-array&gt;</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'chika_literal'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;len-choice&gt; -&gt; id &lt;array-indexing&gt;</t>
+          <t>&lt;identifier-tail&gt; -&gt; &lt;unary-operator&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;identifier-tail&gt; -&gt; &lt;func-array&gt;</t>
+          <t>&lt;identifier-tail&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;identifier-tail&gt; -&gt; &lt;unary-operator&gt;</t>
+          <t>&lt;unary-operator&gt; -&gt; --</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--'}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;identifier-tail&gt; -&gt; Î»</t>
+          <t>&lt;unary-operator&gt; -&gt; ++</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'++'}</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>&lt;unary-operator&gt; -&gt; --</t>
+          <t>&lt;general-operands&gt; -&gt; &lt;literals&gt;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'--'}</t>
+          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&lt;unary-operator&gt; -&gt; ++</t>
+          <t>&lt;general-operators&gt; -&gt; +</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'++'}</t>
+          <t>{'+'}</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>&lt;general-operands&gt; -&gt; &lt;literals&gt;</t>
+          <t>&lt;general-operators&gt; -&gt; -</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'-'}</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; +</t>
+          <t>&lt;general-operators&gt; -&gt; %</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'+'}</t>
+          <t>{'%'}</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; -</t>
+          <t>&lt;general-operators&gt; -&gt; /</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'-'}</t>
+          <t>{'/'}</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; %</t>
+          <t>&lt;general-operators&gt; -&gt; *</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'%'}</t>
+          <t>{'*'}</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; /</t>
+          <t>&lt;general-operators&gt; -&gt; **</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'/'}</t>
+          <t>{'**'}</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; *</t>
+          <t>&lt;general-operators&gt; -&gt; //</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'*'}</t>
+          <t>{'//'}</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; **</t>
+          <t>&lt;general-operators&gt; -&gt; &gt;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'**'}</t>
+          <t>{'&gt;'}</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; //</t>
+          <t>&lt;general-operators&gt; -&gt; &lt;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'//'}</t>
+          <t>{'&lt;'}</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; &gt;</t>
+          <t>&lt;general-operators&gt; -&gt; &gt;=</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'&gt;'}</t>
+          <t>{'&gt;='}</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; &lt;</t>
+          <t>&lt;general-operators&gt; -&gt; &lt;=</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'&lt;'}</t>
+          <t>{'&lt;='}</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; &gt;=</t>
+          <t>&lt;general-operators&gt; -&gt; ==</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'&gt;='}</t>
+          <t>{'=='}</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; &lt;=</t>
+          <t>&lt;general-operators&gt; -&gt; !=</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'&lt;='}</t>
+          <t>{'!='}</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; ==</t>
+          <t>&lt;general-operators&gt; -&gt; &amp;&amp;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'=='}</t>
+          <t>{'&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; !=</t>
+          <t>&lt;general-operators&gt; -&gt; ||</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'!='}</t>
+          <t>{'||'}</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; &amp;&amp;</t>
+          <t>&lt;statements&gt; -&gt; id &lt;assign-call-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'&amp;&amp;'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt; -&gt; ||</t>
+          <t>&lt;statements&gt; -&gt; &lt;input-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'||'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; id &lt;assign-call-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;output-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;input-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;append-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
+          <t>{'adele'}</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;output-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;delete-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;append-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;conditional-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'adele'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;delete-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;loop-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'adelete'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;conditional-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;switch-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;loop-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;return-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;switch-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;unary-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'id', '--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;return-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;unary-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;statements&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'++', 'id', '--'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; &lt;local-dec&gt; &lt;statements&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; id &lt;assign-call-stmts&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>&lt;statements&gt; -&gt; Î»</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;input-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; id &lt;assign-call-stmts&gt; &lt;statements&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;output-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;input-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;append-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
+          <t>{'adele'}</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;output-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;delete-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;append-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;loop-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'adele'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;delete-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;loop-conditional-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'adelete'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;loop-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;loop-switch-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;loop-conditional-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;return-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;loop-switch-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;unary-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'id', '--', '++'}</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;return-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;control-flow-stmts&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;unary-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; &lt;local-dec&gt; &lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'++', 'id', '--'}</t>
+          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;control-flow-stmts&gt; &lt;loop-body&gt;</t>
+          <t>&lt;loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; &lt;local-dec&gt; &lt;loop-body&gt;</t>
+          <t>&lt;multi-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt; -&gt; Î»</t>
+          <t>&lt;multi-loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>&lt;multi-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
+          <t>&lt;assign-call-stmts&gt; -&gt; &lt;array-indexing&gt; &lt;assignment-operators&gt; &lt;assignment-values&gt; ;</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>&lt;multi-loop-body&gt; -&gt; Î»</t>
+          <t>&lt;assign-call-stmts&gt; -&gt; ( &lt;arguments&gt; ) ;</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>&lt;assign-call-stmts&gt; -&gt; &lt;array-indexing&gt; &lt;assignment-operators&gt; &lt;assignment-values&gt; ;</t>
+          <t>&lt;assignment-operators&gt; -&gt; =</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>&lt;assign-call-stmts&gt; -&gt; ( &lt;arguments&gt; ) ;</t>
+          <t>&lt;assignment-operators&gt; -&gt; +=</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'+='}</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; =</t>
+          <t>&lt;assignment-operators&gt; -&gt; -=</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'-='}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; +=</t>
+          <t>&lt;assignment-operators&gt; -&gt; %=</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'+='}</t>
+          <t>{'%='}</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; -=</t>
+          <t>&lt;assignment-operators&gt; -&gt; /=</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'-='}</t>
+          <t>{'/='}</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; %=</t>
+          <t>&lt;assignment-operators&gt; -&gt; //=</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'%='}</t>
+          <t>{'//='}</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; /=</t>
+          <t>&lt;assignment-operators&gt; -&gt; *=</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'/='}</t>
+          <t>{'*='}</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; //=</t>
+          <t>&lt;assignment-operators&gt; -&gt; **=</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'//='}</t>
+          <t>{'**='}</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; *=</t>
+          <t>&lt;assignment-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'*='}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;assignment-operators&gt; -&gt; **=</t>
+          <t>&lt;assignment-values&gt; -&gt; { &lt;array-elements&gt; }</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'**='}</t>
+          <t>{'{'}</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&lt;assignment-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;input-stmts&gt; -&gt; &lt;input-type&gt; id = givenchy ( &lt;givenchy-values&gt; ) ;</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>&lt;assignment-values&gt; -&gt; { &lt;array-elements&gt; }</t>
+          <t>&lt;input-type&gt; -&gt; &lt;data-type&gt;</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'{'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>&lt;input-stmts&gt; -&gt; &lt;input-type&gt; id = givenchy ( &lt;givenchy-values&gt; ) ;</t>
+          <t>&lt;input-type&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>&lt;input-type&gt; -&gt; &lt;data-type&gt;</t>
+          <t>&lt;givenchy-values&gt; -&gt; &lt;expression-operands&gt;</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>&lt;input-type&gt; -&gt; Î»</t>
+          <t>&lt;output-stmts&gt; -&gt; serve ( &lt;output-values&gt; ) ;</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>&lt;givenchy-values&gt; -&gt; &lt;expression-operands&gt;</t>
+          <t>&lt;append-stmts&gt; -&gt; adele ( id &lt;array-indexing&gt; , &lt;assignment-values&gt; ) ;</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'adele'}</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>&lt;output-stmts&gt; -&gt; serve ( &lt;output-values&gt; ) ;</t>
+          <t>&lt;delete-stmts&gt; -&gt; adelete ( id &lt;array-indexing&gt; ) ;</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;append-stmts&gt; -&gt; adele ( id &lt;array-indexing&gt; , &lt;assignment-values&gt; ) ;</t>
+          <t>&lt;output-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'adele'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>&lt;delete-stmts&gt; -&gt; adelete ( id &lt;array-indexing&gt; ) ;</t>
+          <t>&lt;conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'adelete'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>&lt;output-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;condition&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&lt;conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
+          <t>&lt;conditional-body&gt; -&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>&lt;condition&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;conditional-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>&lt;conditional-body&gt; -&gt; &lt;statements&gt;</t>
+          <t>&lt;loop-conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;loop-conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>&lt;conditional-body&gt; -&gt; Î»</t>
+          <t>&lt;loop-conditional-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>&lt;loop-conditional-stmts&gt; -&gt; pak ( &lt;condition&gt; ) { &lt;loop-conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;</t>
+          <t>&lt;loop-conditional-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>&lt;loop-conditional-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
+          <t>&lt;ganern-pak-statement&gt; -&gt; ganern pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt;</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'ganern'}</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>&lt;loop-conditional-body&gt; -&gt; Î»</t>
+          <t>&lt;ganern-pak-statement&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'ganern', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>&lt;ganern-pak-statement&gt; -&gt; ganern pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt;</t>
+          <t>&lt;ganern-case&gt; -&gt; ganern { &lt;conditional-body&gt; }</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>&lt;ganern-pak-statement&gt; -&gt; Î»</t>
+          <t>&lt;ganern-case&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'push', 'ganern', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>&lt;ganern-case&gt; -&gt; ganern { &lt;conditional-body&gt; }</t>
+          <t>&lt;loop-stmts&gt; -&gt; &lt;forda-statement&gt;</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'ganern'}</t>
+          <t>{'forda'}</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>&lt;ganern-case&gt; -&gt; Î»</t>
+          <t>&lt;loop-stmts&gt; -&gt; &lt;keri-statement&gt;</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'keri'}</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>&lt;loop-stmts&gt; -&gt; &lt;forda-statement&gt;</t>
+          <t>&lt;forda-statement&gt; -&gt; forda ( &lt;loop-type-init&gt; id from &lt;start-value&gt; to &lt;end-value&gt; &lt;step-case&gt; ) { &lt;for-loop-body&gt; }</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;loop-stmts&gt; -&gt; &lt;keri-statement&gt;</t>
+          <t>&lt;loop-type-init&gt; -&gt; &lt;data-type&gt;</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'keri'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&lt;forda-statement&gt; -&gt; forda ( &lt;loop-type-init&gt; id from &lt;start-value&gt; to &lt;end-value&gt; &lt;step-case&gt; ) { &lt;for-loop-body&gt; }</t>
+          <t>&lt;loop-type-init&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'forda'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>&lt;loop-type-init&gt; -&gt; &lt;data-type&gt;</t>
+          <t>&lt;start-value&gt; -&gt; &lt;loop-conditions&gt;</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>&lt;loop-type-init&gt; -&gt; Î»</t>
+          <t>&lt;end-value&gt; -&gt; &lt;loop-conditions&gt;</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>&lt;start-value&gt; -&gt; &lt;loop-conditions&gt;</t>
+          <t>&lt;step-case&gt; -&gt; step &lt;update&gt;</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'step'}</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>&lt;end-value&gt; -&gt; &lt;loop-conditions&gt;</t>
+          <t>&lt;step-case&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>&lt;step-case&gt; -&gt; step &lt;update&gt;</t>
+          <t>&lt;update&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'step'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>&lt;step-case&gt; -&gt; Î»</t>
+          <t>&lt;update&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>&lt;update&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;loop-conditions&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>&lt;update&gt; -&gt; Î»</t>
+          <t>&lt;for-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>&lt;loop-conditions&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;for-loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>&lt;for-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
+          <t>&lt;keri-statement&gt; -&gt; keri &lt;keri-case&gt;</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'keri'}</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>&lt;for-loop-body&gt; -&gt; Î»</t>
+          <t>&lt;keri-case&gt; -&gt; ( &lt;condition&gt; ) { &lt;while-loop-body&gt; }</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>&lt;keri-statement&gt; -&gt; keri &lt;keri-case&gt;</t>
+          <t>&lt;keri-case&gt; -&gt; lang { &lt;while-loop-body&gt; } keri ( &lt;condition&gt; )</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'keri'}</t>
+          <t>{'lang'}</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>&lt;keri-case&gt; -&gt; ( &lt;condition&gt; ) { &lt;while-loop-body&gt; }</t>
+          <t>&lt;while-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>&lt;keri-case&gt; -&gt; lang { &lt;while-loop-body&gt; } keri ( &lt;condition&gt; )</t>
+          <t>&lt;while-loop-body&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'lang'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>&lt;while-loop-body&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
+          <t>&lt;switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt; &lt;ditech-case&gt; }</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>&lt;while-loop-body&gt; -&gt; Î»</t>
+          <t>&lt;multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt;</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>&lt;switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt; &lt;ditech-case&gt; }</t>
+          <t>&lt;multi-cases&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>&lt;multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt;</t>
+          <t>&lt;switch-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'betsung'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>&lt;multi-cases&gt; -&gt; Î»</t>
+          <t>&lt;switch-statements&gt; -&gt; &lt;statements&gt;</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>&lt;switch-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;loop-switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt; &lt;ditech-case&gt; }</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>&lt;switch-statements&gt; -&gt; &lt;statements&gt;</t>
+          <t>&lt;loop-multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt;</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>&lt;loop-switch-stmts&gt; -&gt; versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt; &lt;ditech-case&gt; }</t>
+          <t>&lt;loop-multi-cases&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>&lt;loop-multi-cases&gt; -&gt; betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt;</t>
+          <t>&lt;loop-switch-statements&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'betsung'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>&lt;loop-multi-cases&gt; -&gt; Î»</t>
+          <t>&lt;amaccana-case&gt; -&gt; amaccana ;</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>&lt;loop-switch-statements&gt; -&gt; &lt;loop-body&gt; &lt;multi-loop-body&gt;</t>
+          <t>&lt;amaccana-case&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>&lt;amaccana-case&gt; -&gt; amaccana ;</t>
+          <t>&lt;ditech-case&gt; -&gt; ditech : &lt;switch-statements&gt;</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'amaccana'}</t>
+          <t>{'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>&lt;amaccana-case&gt; -&gt; Î»</t>
+          <t>&lt;ditech-case&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>&lt;ditech-case&gt; -&gt; ditech : &lt;switch-statements&gt;</t>
+          <t>&lt;control-flow-stmts&gt; -&gt; gogogo ;</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'ditech'}</t>
+          <t>{'gogogo'}</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>&lt;ditech-case&gt; -&gt; Î»</t>
+          <t>&lt;control-flow-stmts&gt; -&gt; amaccana ;</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt; -&gt; gogogo ;</t>
+          <t>&lt;control-flow-stmts&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'gogogo'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt; -&gt; amaccana ;</t>
+          <t>&lt;return-stmts&gt; -&gt; push &lt;push-values&gt; ;</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'amaccana'}</t>
+          <t>{'push'}</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt; -&gt; Î»</t>
+          <t>&lt;return-stmts&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>&lt;return-stmts&gt; -&gt; push &lt;push-values&gt; ;</t>
+          <t>&lt;unary-stmts&gt; -&gt; &lt;unary-operator&gt; id ;</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'push'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>&lt;return-stmts&gt; -&gt; Î»</t>
+          <t>&lt;unary-stmts&gt; -&gt; id &lt;unary-operator&gt; ;</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>&lt;unary-stmts&gt; -&gt; &lt;unary-operator&gt; id ;</t>
+          <t>&lt;push-values&gt; -&gt; &lt;expression&gt;</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>&lt;unary-stmts&gt; -&gt; id &lt;unary-operator&gt; ;</t>
+          <t>&lt;push-values&gt; -&gt; { &lt;array-elements&gt; }</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'{'}</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>&lt;push-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;push-values&gt; -&gt; Î»</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4646,46 +4646,6 @@
         </is>
       </c>
       <c r="D211" t="inlineStr">
-        <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>&lt;push-values&gt; -&gt; { &lt;array-elements&gt; }</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>-&gt;</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>{'{'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>&lt;push-values&gt; -&gt; Î»</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>-&gt;</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
         <is>
           <t>{';'}</t>
         </is>

--- a/Files/cfg/predict_set.xlsx
+++ b/Files/cfg/predict_set.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'andamhie', 'chika', 'eklabool', 'anda'}</t>
+          <t>{'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '[', '(', ';'}</t>
+          <t>{';', '=', '(', ')', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '[', '(', ';'}</t>
+          <t>{';', '=', '(', ')', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '(', ';'}</t>
+          <t>{'=', '(', ')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', ';', '**=', '-', '**', '/', '*', '||', 'step', '*=', '&gt;=', '==', '+', '-=', '%', 'to', '//=', ',', '&lt;', '}', ')', '//', '=', '/=', '&amp;&amp;', '+=', ':', '%='}</t>
+          <t>{'&amp;&amp;', '=', '&gt;', '&lt;', '**', '*=', '&gt;=', '%', '!=', '==', ']', '&lt;=', '-=', '/', '}', '//', 'step', ')', '/=', '||', '*', '-', ';', ':', '//=', '+', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
+          <t>{'&amp;&amp;', '&gt;', '&lt;', '(', '**', '&gt;=', '%', '!=', 'to', '==', ']', '&lt;=', '/', '}', '//', 'step', ')', '||', '*', '-', ';', ':', '+', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '[', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'shimenet', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'shimenet', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;arguments-value&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;arguments-value&gt; -&gt; &lt;assignment-values&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'andamhie', 'adelete', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'eklabool', 'anda', 'serve', 'pak', 'chika', '}', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'id', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '%', '&gt;', '&lt;', '/', '*', '-', '**', '||', '//', '&gt;=', '==', '&amp;&amp;', '+'}</t>
+          <t>{'&amp;&amp;', '&gt;', '//', '&lt;', '**', '||', '*', '-', '%', '&gt;=', '!=', '==', '+', '&lt;=', '/'}</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
+          <t>{'}', 'step', ')', ';', ':', ']', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'anda_literal', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', 'chika_literal', '('}</t>
+          <t>{'--', 'len', '(', '++', 'korik', 'eme', 'anda_literal', 'id', 'andamhie_literal', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
+          <t>{'anda_literal', 'korik', 'andamhie_literal', 'eme', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
+          <t>{'&amp;&amp;', '&gt;', '&lt;', '(', '**', '&gt;=', '%', '!=', 'to', '==', ']', '&lt;=', '/', '}', '//', 'step', ')', '||', '*', '-', ';', ':', '+', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
+          <t>{'anda_literal', 'korik', 'andamhie_literal', 'eme', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'id', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'id', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'}', 'betsung', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '[', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'id', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>&lt;output-values&gt; -&gt; &lt;expression&gt;</t>
+          <t>&lt;output-values&gt; -&gt; &lt;assignment-values&gt;</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'ganern', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', 'ganern', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
